--- a/data/trans_camb/P3A_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R2-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 1,2</t>
+          <t>-7,33; 1,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,87; -1,94</t>
+          <t>-10,23; -1,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,95; -0,61</t>
+          <t>-8,11; -0,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 1,66</t>
+          <t>-7,58; 2,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 0,26</t>
+          <t>-9,27; -0,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 0,83</t>
+          <t>-7,52; 0,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 0,04</t>
+          <t>-6,08; 0,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,55; -2,61</t>
+          <t>-8,4; -2,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,63; -1,28</t>
+          <t>-6,81; -1,41</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-51,66; 12,76</t>
+          <t>-50,42; 14,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-72,58; -17,93</t>
+          <t>-72,55; -16,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-56,95; -5,34</t>
+          <t>-56,91; -8,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-58,36; 21,58</t>
+          <t>-59,58; 28,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,16; 9,21</t>
+          <t>-68,44; 2,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,87; 14,25</t>
+          <t>-55,34; 9,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-47,57; 0,7</t>
+          <t>-47,49; 4,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-66,34; -27,38</t>
+          <t>-65,28; -25,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-50,36; -13,07</t>
+          <t>-51,79; -14,1</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 2,78</t>
+          <t>-4,27; 2,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 0,23</t>
+          <t>-5,78; 0,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 1,39</t>
+          <t>-4,75; 1,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 4,98</t>
+          <t>-1,62; 4,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 1,09</t>
+          <t>-4,13; 1,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 2,92</t>
+          <t>-2,16; 2,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 2,72</t>
+          <t>-2,14; 2,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,27; -0,2</t>
+          <t>-4,33; -0,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 1,57</t>
+          <t>-2,31; 1,49</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,59; 77,56</t>
+          <t>-58,83; 79,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-80,9; 23,46</t>
+          <t>-79,38; 17,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-62,72; 43,67</t>
+          <t>-61,79; 39,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,85; 193,57</t>
+          <t>-37,93; 201,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-79,05; 54,46</t>
+          <t>-80,75; 68,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,74; 122,92</t>
+          <t>-39,0; 118,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,11; 81,14</t>
+          <t>-37,99; 80,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-72,66; -3,52</t>
+          <t>-73,46; -2,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,19; 48,81</t>
+          <t>-39,51; 46,8</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 1,67</t>
+          <t>-1,91; 1,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 0,83</t>
+          <t>-2,86; 0,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 1,73</t>
+          <t>-2,9; 1,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 5,02</t>
+          <t>-2,13; 4,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 2,93</t>
+          <t>-3,62; 3,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 8,47</t>
+          <t>0,49; 8,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 1,95</t>
+          <t>-1,45; 1,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 0,79</t>
+          <t>-2,41; 0,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 2,84</t>
+          <t>-2,11; 2,69</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-55,76; 109,04</t>
+          <t>-59,36; 102,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-75,38; 62,4</t>
+          <t>-76,38; 61,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-74,13; 91,02</t>
+          <t>-73,07; 101,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-49,79; 633,98</t>
+          <t>-56,65; 540,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 442,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,27; 1074,55</t>
+          <t>-10,84; 1084,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-42,33; 111,48</t>
+          <t>-40,54; 117,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-67,79; 46,43</t>
+          <t>-67,57; 58,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-52,2; 149,38</t>
+          <t>-54,94; 135,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 1,7</t>
+          <t>-0,71; 1,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 1,0</t>
+          <t>-1,22; 0,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,36</t>
+          <t>1,31; 4,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 1,7</t>
+          <t>-0,96; 1,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 1,97</t>
+          <t>-0,79; 2,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 2,59</t>
+          <t>-0,21; 2,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 1,37</t>
+          <t>-0,45; 1,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 0,93</t>
+          <t>-0,69; 1,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,12</t>
+          <t>0,8; 3,05</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-32,0; 111,64</t>
+          <t>-29,78; 121,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-47,41; 71,94</t>
+          <t>-49,23; 59,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>51,99; 273,03</t>
+          <t>51,99; 288,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-48,59; 249,07</t>
+          <t>-57,95; 290,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-45,07; 315,69</t>
+          <t>-51,61; 309,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-13,78; 382,02</t>
+          <t>-10,67; 438,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,01; 109,51</t>
+          <t>-23,17; 108,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-34,6; 67,8</t>
+          <t>-33,38; 77,8</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>37,03; 219,65</t>
+          <t>38,4; 220,48</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,06; 5,44</t>
+          <t>1,14; 5,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 2,44</t>
+          <t>-0,73; 2,47</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,69; 4,35</t>
+          <t>0,63; 4,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 2,81</t>
+          <t>-0,43; 2,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 0,87</t>
+          <t>-1,99; 0,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,37; 5,06</t>
+          <t>1,43; 4,98</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,39</t>
+          <t>0,75; 3,48</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 1,29</t>
+          <t>-0,93; 1,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,33</t>
+          <t>1,61; 4,28</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>33,04; 921,53</t>
+          <t>31,49; 1074,43</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-40,33; 426,34</t>
+          <t>-36,92; 450,17</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>9,84; 744,74</t>
+          <t>10,41; 774,88</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-28,37; 254,24</t>
+          <t>-23,33; 281,69</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-77,52; 101,65</t>
+          <t>-77,84; 106,7</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>44,74; 535,66</t>
+          <t>46,29; 486,69</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>25,61; 318,61</t>
+          <t>31,5; 368,15</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-42,15; 120,82</t>
+          <t>-43,29; 124,93</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>71,83; 418,74</t>
+          <t>63,69; 450,19</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 0,49</t>
+          <t>-5,57; 0,89</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,94; -0,33</t>
+          <t>-6,25; -0,36</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 4,13</t>
+          <t>-4,99; 5,6</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,1; 5,44</t>
+          <t>1,88; 5,6</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 3,43</t>
+          <t>0,09; 3,45</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,72</t>
+          <t>3,04; 6,85</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,24</t>
+          <t>1,01; 4,19</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 2,17</t>
+          <t>-0,71; 2,29</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,19</t>
+          <t>1,66; 5,43</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-81,57; 26,13</t>
+          <t>-80,83; 46,31</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-89,53; 3,54</t>
+          <t>-90,86; 0,87</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-91,94; 122,93</t>
+          <t>-86,82; 157,66</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>55,01; 229,68</t>
+          <t>45,73; 230,82</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 142,1</t>
+          <t>-2,14; 140,66</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>75,59; 276,25</t>
+          <t>78,64; 289,84</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>25,3; 154,32</t>
+          <t>23,94; 145,84</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 79,89</t>
+          <t>-18,28; 83,53</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>39,42; 183,3</t>
+          <t>41,81; 191,22</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,67</t>
+          <t>-1,08; 0,87</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,44; -0,75</t>
+          <t>-2,44; -0,7</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,25</t>
+          <t>-0,96; 1,38</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,32</t>
+          <t>0,53; 2,45</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 0,95</t>
+          <t>-0,92; 0,81</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,11</t>
+          <t>1,05; 3,15</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 1,32</t>
+          <t>-0,13; 1,23</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,44; -0,24</t>
+          <t>-1,51; -0,22</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,94</t>
+          <t>0,35; 1,91</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-25,51; 18,8</t>
+          <t>-24,34; 24,03</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-54,76; -20,73</t>
+          <t>-54,32; -19,79</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-22,4; 33,77</t>
+          <t>-20,98; 37,33</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>12,81; 82,01</t>
+          <t>14,6; 89,91</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-27,06; 34,26</t>
+          <t>-26,79; 29,86</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>28,86; 112,14</t>
+          <t>29,54; 118,78</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 40,76</t>
+          <t>-3,33; 36,92</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-37,19; -6,57</t>
+          <t>-37,73; -6,47</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>9,28; 59,55</t>
+          <t>9,59; 57,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P3A_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R2-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
